--- a/soal 2.xlsx
+++ b/soal 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="8445"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="19815" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="soal 2" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="767">
   <si>
     <t>TES POTENSI AKADEMIK</t>
   </si>
@@ -1336,6 +1336,9 @@
     <t>Milan berada di posisi empat</t>
   </si>
   <si>
+    <t>Juki akan mengambil sepatunya di rak sepatu. Ia mempunyai sepatu yang berlainan. Sepatunya tersebut telah diberi huruf A, B, C, D, dan E. Keterangan mengenai sepatu Juki: Terdapat 3 sepatu bermerek Aduhdis dan 2 sepatu bermerek Kanvas, Terdapat 3 sepatu berwarna Putih dan 2 sepatu berwarna hitam, A dan C bermerek sama, D dan E salah satunya adalah Aduhdis, B dan E mempunyai warna yang sama, C dan D salah satunya berwarna adalah Putih</t>
+  </si>
+  <si>
     <t>Pada akhirnya Juki memutuskan untuk mengambil sepatu bermerek Kanvas yang berwarna hitam. sepatu manakah yang dipilih Juki?</t>
   </si>
   <si>
@@ -1387,112 +1390,10 @@
     <t>D adalah sepatu berwarna putih dan bermerek Kanvas</t>
   </si>
   <si>
-    <t>Juki akan mengambil sepatunya di rak sepatu. Ia mempunyai sepatu yang berlainan. Sepatunya tersebut telah diberi huruf A, B, C, D, dan E. Keterangan mengenai sepatu Juki: Terdapat 3 sepatu bermerek Aduhdis dan 2 sepatu bermerek Kanvas, Terdapat 3 sepatu berwarna Putih dan 2 sepatu berwarna hitam, A dan C bermerek sama, D dan E salah satunya adalah Aduhdis, B dan E mempunyai warna yang sama, C dan D salah satunya berwarna adalah Putih</t>
-  </si>
-  <si>
-    <r>
-      <t>Carilah</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>gambar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>yang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bukan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>kelompoknya</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>BAHASA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>INGGRIS</t>
-    </r>
+    <t>Carilah gambar yang bukan kelompoknya</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS</t>
   </si>
   <si>
     <t>STRUCTURE AND WRITTEN EXPRESSION</t>
@@ -1711,9 +1612,15 @@
     <t>For all police officers</t>
   </si>
   <si>
+    <t>.... loom high above the north and northeastern boundaries of the expanding city of Tucson.</t>
+  </si>
+  <si>
     <t>The Santa Catalina mountains</t>
   </si>
   <si>
+    <t>Because the Santa Catalina mountains</t>
+  </si>
+  <si>
     <t>The Santa Catalina mountains are</t>
   </si>
   <si>
@@ -1795,6 +1702,9 @@
     <t>was divided</t>
   </si>
   <si>
+    <t>The legal systems of most countries can be classified ....  common law or civil law.</t>
+  </si>
+  <si>
     <t>as either</t>
   </si>
   <si>
@@ -1867,322 +1777,27 @@
     <t>elected and</t>
   </si>
   <si>
-    <t>.... loom high above the north and northeastern boundaries of the expanding city of Tucson.</t>
-  </si>
-  <si>
-    <t>Because the Santa Catalina mountains</t>
-  </si>
-  <si>
-    <r>
-      <t>Choose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>one</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>word</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>which</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>would</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>be</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>appropriate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>standard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>written</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>English!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ERROR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RECOGNITION</t>
-    </r>
+    <t>ERROR RECOGNITION</t>
+  </si>
+  <si>
+    <t>Choose the one word or phrase which would not be appropriate in standard written English!</t>
+  </si>
+  <si>
+    <t>The new machine is processes 50 percent more than the previous machine.</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>is processes</t>
+  </si>
+  <si>
+    <t>than</t>
   </si>
   <si>
     <t>previous</t>
   </si>
   <si>
-    <t>than</t>
-  </si>
-  <si>
-    <t>is processes</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>The legal systems of most countries can be classified ....  common law or civil law.</t>
-  </si>
-  <si>
     <t>The development of permanent teeth, alike that of deducious teeth, begins before birth.</t>
   </si>
   <si>
@@ -2384,9 +1999,6 @@
     <t>are left</t>
   </si>
   <si>
-    <t>The new machine is processes 50 percent more than the previous machine.</t>
-  </si>
-  <si>
     <t>READING COMPREHENSION</t>
   </si>
   <si>
@@ -2468,6 +2080,9 @@
     <t>They create storage spaces.</t>
   </si>
   <si>
+    <t>All of the following are characteristics of a honeycomb EXCEPT</t>
+  </si>
+  <si>
     <t>It contains hexagonal sections.</t>
   </si>
   <si>
@@ -2495,7 +2110,7 @@
     <t>Antartica</t>
   </si>
   <si>
-    <t>All of the following are characteristics of a honeycomb EXCEPT</t>
+    <t>Reading for next 7 questios</t>
   </si>
   <si>
     <t>CAUTION: Your signature on this legal documents indicates that you have read and understood its contents and agree to abide by its conditions. For apartment number 109 of University Park Apartment located at 600 University Park. 1) Security deposit. The amount of the security deposit is $250, at no time to be applied as rent, and to be refunded upon termination of agreement less any amount retained in payment of damages to the apartment. Should damages to the premises exceed the amount of the deposit, the resident agrees to reimburse the management for such excess. 2) Termination of agreement. This security deposit shall be refunded less any retained amount specified upon the termination of this agreement at the end of the original rental period if notice in writing of termination has been given thirty (30) days in advance of such termination, the keys have been returned to the management,and the premises are found upon inspection to be clean and undamaged.</t>
@@ -2606,7 +2221,7 @@
     <t>Depraved</t>
   </si>
   <si>
-    <t>Reading for next 7 questios</t>
+    <t>Reading for next 6 questios</t>
   </si>
   <si>
     <t>General appliance company guarantees the product to be free from manufacturing defects for one year after tha original date of purchase. If the product should become defective within the warranty period, General Appliance will repair or replace it free of charge, provided that damage to the product has not resulted from accident or misuse. Deliver the product to any one of the authorized service facilities whose names and adresses are listed in the accompanying brochures. Direct any questions regarding the warranty to Consumer Service Division, General Applianse Company, 1621 Bergen Street, Newark, Ney Jersey 07102.</t>
@@ -2700,16 +2315,13 @@
   </si>
   <si>
     <t>When the replacement was paid for by the customer</t>
-  </si>
-  <si>
-    <t>Reading for next 6 questios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2844,33 +2456,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3214,20 +2799,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3563,29 +3139,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I281"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" customWidth="1"/>
+    <col min="7" max="7" width="46" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3593,7 +3165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3615,8 +3187,11 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3638,8 +3213,11 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3661,8 +3239,11 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -3684,8 +3265,11 @@
       <c r="G6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3707,8 +3291,11 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -3730,8 +3317,11 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3753,8 +3343,11 @@
       <c r="G9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -3776,8 +3369,11 @@
       <c r="G10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3799,8 +3395,11 @@
       <c r="G11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3822,8 +3421,11 @@
       <c r="G12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3831,7 +3433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -3853,8 +3455,11 @@
       <c r="G14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -3876,8 +3481,11 @@
       <c r="G15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -3899,8 +3507,11 @@
       <c r="G16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -3922,8 +3533,11 @@
       <c r="G17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -3945,8 +3559,11 @@
       <c r="G18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -3968,8 +3585,11 @@
       <c r="G19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3991,8 +3611,11 @@
       <c r="G20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -4014,8 +3637,11 @@
       <c r="G21" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4037,8 +3663,11 @@
       <c r="G22" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -4060,8 +3689,11 @@
       <c r="G23" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4069,7 +3701,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -4091,8 +3723,11 @@
       <c r="G25" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -4114,8 +3749,11 @@
       <c r="G26" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -4137,8 +3775,11 @@
       <c r="G27" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -4160,8 +3801,11 @@
       <c r="G28" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -4183,8 +3827,11 @@
       <c r="G29" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -4206,8 +3853,11 @@
       <c r="G30" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -4229,8 +3879,11 @@
       <c r="G31" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -4252,8 +3905,11 @@
       <c r="G32" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -4275,8 +3931,11 @@
       <c r="G33" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -4298,8 +3957,11 @@
       <c r="G34" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -4307,7 +3969,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -4329,8 +3991,11 @@
       <c r="G36" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -4352,8 +4017,11 @@
       <c r="G37" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -4375,8 +4043,11 @@
       <c r="G38" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -4387,7 +4058,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -4409,8 +4080,11 @@
       <c r="G40" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -4432,8 +4106,11 @@
       <c r="G41" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -4455,8 +4132,11 @@
       <c r="G42" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -4478,8 +4158,11 @@
       <c r="G43" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -4490,7 +4173,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -4512,8 +4195,11 @@
       <c r="G45" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -4535,8 +4221,11 @@
       <c r="G46" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -4558,8 +4247,11 @@
       <c r="G47" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -4567,7 +4259,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -4589,8 +4281,11 @@
       <c r="G49" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -4612,8 +4307,11 @@
       <c r="G50" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -4635,8 +4333,11 @@
       <c r="G51" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -4658,8 +4359,11 @@
       <c r="G52">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -4681,8 +4385,11 @@
       <c r="G53" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -4693,7 +4400,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -4715,8 +4422,11 @@
       <c r="G55" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -4738,8 +4448,11 @@
       <c r="G56" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -4761,8 +4474,11 @@
       <c r="G57" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -4784,8 +4500,11 @@
       <c r="G58">
         <v>90</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -4807,8 +4526,11 @@
       <c r="G59" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -4830,8 +4552,11 @@
       <c r="G60">
         <v>160</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -4853,8 +4578,11 @@
       <c r="G61" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -4876,8 +4604,11 @@
       <c r="G62" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -4899,8 +4630,11 @@
       <c r="G63" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -4922,8 +4656,11 @@
       <c r="G64" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -4934,7 +4671,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -4956,8 +4693,11 @@
       <c r="G66">
         <v>198</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -4979,8 +4719,11 @@
       <c r="G67" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -5002,8 +4745,11 @@
       <c r="G68">
         <v>1382</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -5025,8 +4771,11 @@
       <c r="G69" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -5048,8 +4797,11 @@
       <c r="G70">
         <v>368</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -5071,8 +4823,11 @@
       <c r="G71" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -5094,8 +4849,11 @@
       <c r="G72" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -5117,8 +4875,11 @@
       <c r="G73" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -5140,8 +4901,11 @@
       <c r="G74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -5163,8 +4927,11 @@
       <c r="G75" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -5186,8 +4953,11 @@
       <c r="G76" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -5209,8 +4979,11 @@
       <c r="G77" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -5232,8 +5005,11 @@
       <c r="G78" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -5255,8 +5031,11 @@
       <c r="G79" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -5278,8 +5057,11 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -5301,8 +5083,11 @@
       <c r="G81">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -5324,8 +5109,11 @@
       <c r="G82" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -5347,8 +5135,11 @@
       <c r="G83">
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -5370,8 +5161,11 @@
       <c r="G84" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -5393,8 +5187,11 @@
       <c r="G85" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -5416,8 +5213,11 @@
       <c r="G86" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -5439,8 +5239,11 @@
       <c r="G87" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -5462,8 +5265,11 @@
       <c r="G88">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -5485,8 +5291,11 @@
       <c r="G89">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -5508,8 +5317,11 @@
       <c r="G90" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -5517,7 +5329,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -5539,8 +5351,11 @@
       <c r="G92" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -5562,8 +5377,11 @@
       <c r="G93" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -5585,8 +5403,11 @@
       <c r="G94" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -5608,8 +5429,11 @@
       <c r="G95" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -5631,8 +5455,11 @@
       <c r="G96" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -5654,8 +5481,11 @@
       <c r="G97" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -5677,8 +5507,11 @@
       <c r="G98" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -5700,8 +5533,11 @@
       <c r="G99" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -5723,8 +5559,11 @@
       <c r="G100" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -5746,8 +5585,11 @@
       <c r="G101" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -5769,8 +5611,11 @@
       <c r="G102">
         <v>41</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -5792,8 +5637,11 @@
       <c r="G103">
         <v>32</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -5815,8 +5663,11 @@
       <c r="G104">
         <v>40</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -5838,8 +5689,11 @@
       <c r="G105">
         <v>21</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -5861,8 +5715,11 @@
       <c r="G106" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -5884,8 +5741,11 @@
       <c r="G107">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -5907,8 +5767,11 @@
       <c r="G108" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -5916,22 +5779,25 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D109">
-        <v>-32</v>
+        <v>11</v>
       </c>
       <c r="E109">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="F109">
+        <v>9</v>
+      </c>
+      <c r="G109">
         <v>8</v>
       </c>
-      <c r="G109">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -5939,22 +5805,25 @@
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>394</v>
-      </c>
-      <c r="D110">
-        <v>31</v>
-      </c>
-      <c r="E110">
-        <v>35</v>
-      </c>
-      <c r="F110">
-        <v>38</v>
-      </c>
-      <c r="G110">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>408</v>
+      </c>
+      <c r="D110" t="s">
+        <v>409</v>
+      </c>
+      <c r="E110" t="s">
+        <v>410</v>
+      </c>
+      <c r="F110" t="s">
+        <v>411</v>
+      </c>
+      <c r="G110" t="s">
+        <v>412</v>
+      </c>
+      <c r="H110" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -5962,22 +5831,25 @@
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D111">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E111">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F111">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="G111">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="H111" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -5985,22 +5857,25 @@
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>396</v>
-      </c>
-      <c r="D112" t="s">
-        <v>397</v>
-      </c>
-      <c r="E112" t="s">
-        <v>398</v>
-      </c>
-      <c r="F112" t="s">
-        <v>399</v>
-      </c>
-      <c r="G112" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>414</v>
+      </c>
+      <c r="D112">
+        <v>7</v>
+      </c>
+      <c r="E112">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>9</v>
+      </c>
+      <c r="G112">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -6008,45 +5883,36 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>401</v>
-      </c>
-      <c r="D113">
-        <v>81</v>
-      </c>
-      <c r="E113">
-        <v>27</v>
-      </c>
-      <c r="F113">
-        <v>24</v>
-      </c>
-      <c r="G113">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>415</v>
+      </c>
+      <c r="D113" t="s">
+        <v>416</v>
+      </c>
+      <c r="E113" t="s">
+        <v>417</v>
+      </c>
+      <c r="F113" t="s">
+        <v>418</v>
+      </c>
+      <c r="G113" t="s">
+        <v>419</v>
+      </c>
+      <c r="H113" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
-        <v>402</v>
-      </c>
-      <c r="D114" t="s">
-        <v>403</v>
-      </c>
-      <c r="E114" t="s">
-        <v>404</v>
-      </c>
-      <c r="F114" t="s">
-        <v>405</v>
-      </c>
-      <c r="G114" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -6054,22 +5920,25 @@
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>407</v>
-      </c>
-      <c r="D115">
-        <v>11</v>
-      </c>
-      <c r="E115">
-        <v>10</v>
-      </c>
-      <c r="F115">
-        <v>9</v>
-      </c>
-      <c r="G115">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>421</v>
+      </c>
+      <c r="D115" t="s">
+        <v>422</v>
+      </c>
+      <c r="E115" t="s">
+        <v>423</v>
+      </c>
+      <c r="F115" t="s">
+        <v>424</v>
+      </c>
+      <c r="G115" t="s">
+        <v>425</v>
+      </c>
+      <c r="H115" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -6077,22 +5946,25 @@
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="D116" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="E116" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="F116" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="G116" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>430</v>
+      </c>
+      <c r="H116" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -6100,22 +5972,25 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>413</v>
-      </c>
-      <c r="D117">
-        <v>51</v>
-      </c>
-      <c r="E117">
-        <v>55</v>
-      </c>
-      <c r="F117">
-        <v>61</v>
-      </c>
-      <c r="G117">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>431</v>
+      </c>
+      <c r="D117" t="s">
+        <v>432</v>
+      </c>
+      <c r="E117" t="s">
+        <v>433</v>
+      </c>
+      <c r="F117" t="s">
+        <v>434</v>
+      </c>
+      <c r="G117" t="s">
+        <v>435</v>
+      </c>
+      <c r="H117" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -6123,56 +5998,62 @@
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>414</v>
-      </c>
-      <c r="D118">
-        <v>7</v>
-      </c>
-      <c r="E118">
-        <v>8</v>
-      </c>
-      <c r="F118">
-        <v>9</v>
-      </c>
-      <c r="G118">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>436</v>
+      </c>
+      <c r="D118" t="s">
+        <v>437</v>
+      </c>
+      <c r="E118" t="s">
+        <v>438</v>
+      </c>
+      <c r="F118" t="s">
+        <v>439</v>
+      </c>
+      <c r="G118" t="s">
+        <v>427</v>
+      </c>
+      <c r="H118" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" t="s">
-        <v>415</v>
-      </c>
-      <c r="D119" t="s">
-        <v>416</v>
-      </c>
-      <c r="E119" t="s">
-        <v>417</v>
-      </c>
-      <c r="F119" t="s">
-        <v>418</v>
-      </c>
-      <c r="G119" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>441</v>
+      </c>
+      <c r="D120" t="s">
+        <v>442</v>
+      </c>
+      <c r="E120" t="s">
+        <v>443</v>
+      </c>
+      <c r="F120" t="s">
+        <v>444</v>
+      </c>
+      <c r="G120" t="s">
+        <v>445</v>
+      </c>
+      <c r="H120" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -6180,22 +6061,25 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="D121" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="E121" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="F121" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="G121" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>450</v>
+      </c>
+      <c r="H121" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -6203,22 +6087,25 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="D122" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="E122" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="F122" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="G122" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>452</v>
+      </c>
+      <c r="H122" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -6226,1038 +6113,1161 @@
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="D123" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="E123" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="F123" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="G123" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>457</v>
+      </c>
+      <c r="H123" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>1</v>
       </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
-        <v>436</v>
-      </c>
-      <c r="D124" t="s">
-        <v>437</v>
-      </c>
-      <c r="E124" t="s">
-        <v>438</v>
-      </c>
-      <c r="F124" t="s">
-        <v>439</v>
-      </c>
-      <c r="G124" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>1</v>
       </c>
-      <c r="B125" t="s">
-        <v>270</v>
-      </c>
-      <c r="C125" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>1</v>
       </c>
-      <c r="B126" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" t="s">
-        <v>440</v>
-      </c>
-      <c r="D126" t="s">
-        <v>441</v>
-      </c>
-      <c r="E126" t="s">
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>460</v>
+      </c>
+      <c r="C136" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>462</v>
+      </c>
+      <c r="D137" t="s">
+        <v>463</v>
+      </c>
+      <c r="E137" t="s">
+        <v>464</v>
+      </c>
+      <c r="F137" t="s">
+        <v>465</v>
+      </c>
+      <c r="G137" t="s">
+        <v>466</v>
+      </c>
+      <c r="H137" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>467</v>
+      </c>
+      <c r="D138" t="s">
+        <v>468</v>
+      </c>
+      <c r="E138" t="s">
+        <v>469</v>
+      </c>
+      <c r="F138" t="s">
+        <v>470</v>
+      </c>
+      <c r="G138" t="s">
+        <v>471</v>
+      </c>
+      <c r="H138" t="s">
         <v>442</v>
       </c>
-      <c r="F126" t="s">
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>472</v>
+      </c>
+      <c r="D139" t="s">
+        <v>473</v>
+      </c>
+      <c r="E139" t="s">
+        <v>474</v>
+      </c>
+      <c r="F139" t="s">
+        <v>475</v>
+      </c>
+      <c r="G139" t="s">
+        <v>476</v>
+      </c>
+      <c r="H139" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>477</v>
+      </c>
+      <c r="D140" t="s">
+        <v>478</v>
+      </c>
+      <c r="E140" t="s">
+        <v>479</v>
+      </c>
+      <c r="F140" t="s">
+        <v>480</v>
+      </c>
+      <c r="G140" t="s">
+        <v>481</v>
+      </c>
+      <c r="H140" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>482</v>
+      </c>
+      <c r="D141" t="s">
+        <v>483</v>
+      </c>
+      <c r="E141" t="s">
+        <v>484</v>
+      </c>
+      <c r="F141" t="s">
+        <v>485</v>
+      </c>
+      <c r="G141" t="s">
+        <v>486</v>
+      </c>
+      <c r="H141" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>487</v>
+      </c>
+      <c r="D142" t="s">
+        <v>488</v>
+      </c>
+      <c r="E142" t="s">
+        <v>489</v>
+      </c>
+      <c r="F142" t="s">
+        <v>490</v>
+      </c>
+      <c r="G142" t="s">
+        <v>491</v>
+      </c>
+      <c r="H142" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>492</v>
+      </c>
+      <c r="D143" t="s">
+        <v>493</v>
+      </c>
+      <c r="E143" t="s">
+        <v>494</v>
+      </c>
+      <c r="F143" t="s">
+        <v>495</v>
+      </c>
+      <c r="G143" t="s">
+        <v>496</v>
+      </c>
+      <c r="H143" t="s">
         <v>443</v>
       </c>
-      <c r="G126" t="s">
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>497</v>
+      </c>
+      <c r="D144" t="s">
+        <v>498</v>
+      </c>
+      <c r="E144" t="s">
+        <v>499</v>
+      </c>
+      <c r="F144" t="s">
+        <v>500</v>
+      </c>
+      <c r="G144" t="s">
+        <v>501</v>
+      </c>
+      <c r="H144" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>502</v>
+      </c>
+      <c r="D145" t="s">
+        <v>503</v>
+      </c>
+      <c r="E145" t="s">
+        <v>504</v>
+      </c>
+      <c r="F145" t="s">
+        <v>505</v>
+      </c>
+      <c r="G145" t="s">
+        <v>506</v>
+      </c>
+      <c r="H145" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>507</v>
+      </c>
+      <c r="D146" t="s">
+        <v>508</v>
+      </c>
+      <c r="E146" t="s">
+        <v>509</v>
+      </c>
+      <c r="F146" t="s">
+        <v>510</v>
+      </c>
+      <c r="G146" t="s">
+        <v>511</v>
+      </c>
+      <c r="H146" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
-      <c r="A127" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>512</v>
+      </c>
+      <c r="D147" t="s">
+        <v>513</v>
+      </c>
+      <c r="E147" t="s">
+        <v>514</v>
+      </c>
+      <c r="F147" t="s">
+        <v>515</v>
+      </c>
+      <c r="G147" t="s">
+        <v>516</v>
+      </c>
+      <c r="H147" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>517</v>
+      </c>
+      <c r="D148" t="s">
+        <v>518</v>
+      </c>
+      <c r="E148" t="s">
+        <v>519</v>
+      </c>
+      <c r="F148" t="s">
+        <v>520</v>
+      </c>
+      <c r="G148" t="s">
+        <v>521</v>
+      </c>
+      <c r="H148" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>522</v>
+      </c>
+      <c r="D149" t="s">
+        <v>523</v>
+      </c>
+      <c r="E149" t="s">
+        <v>524</v>
+      </c>
+      <c r="F149" t="s">
+        <v>525</v>
+      </c>
+      <c r="G149" t="s">
+        <v>526</v>
+      </c>
+      <c r="H149" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>527</v>
+      </c>
+      <c r="D150" t="s">
+        <v>528</v>
+      </c>
+      <c r="E150" t="s">
+        <v>529</v>
+      </c>
+      <c r="F150" t="s">
+        <v>530</v>
+      </c>
+      <c r="G150" t="s">
+        <v>531</v>
+      </c>
+      <c r="H150" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>532</v>
+      </c>
+      <c r="D151" t="s">
+        <v>533</v>
+      </c>
+      <c r="E151" t="s">
+        <v>534</v>
+      </c>
+      <c r="F151" t="s">
+        <v>535</v>
+      </c>
+      <c r="G151" t="s">
+        <v>536</v>
+      </c>
+      <c r="H151" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>537</v>
+      </c>
+      <c r="D152" t="s">
+        <v>538</v>
+      </c>
+      <c r="E152" t="s">
+        <v>539</v>
+      </c>
+      <c r="F152" t="s">
+        <v>540</v>
+      </c>
+      <c r="G152" t="s">
+        <v>541</v>
+      </c>
+      <c r="H152" t="s">
         <v>445</v>
       </c>
-      <c r="D127" t="s">
-        <v>446</v>
-      </c>
-      <c r="E127" t="s">
-        <v>447</v>
-      </c>
-      <c r="F127" t="s">
-        <v>448</v>
-      </c>
-      <c r="G127" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>450</v>
-      </c>
-      <c r="D128" t="s">
-        <v>441</v>
-      </c>
-      <c r="E128" t="s">
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>542</v>
+      </c>
+      <c r="D153" t="s">
+        <v>543</v>
+      </c>
+      <c r="E153" t="s">
+        <v>544</v>
+      </c>
+      <c r="F153" t="s">
+        <v>545</v>
+      </c>
+      <c r="G153" t="s">
+        <v>546</v>
+      </c>
+      <c r="H153" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>547</v>
+      </c>
+      <c r="D154" t="s">
+        <v>548</v>
+      </c>
+      <c r="E154" t="s">
+        <v>549</v>
+      </c>
+      <c r="F154" t="s">
+        <v>550</v>
+      </c>
+      <c r="G154" t="s">
+        <v>551</v>
+      </c>
+      <c r="H154" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>552</v>
+      </c>
+      <c r="D155" t="s">
+        <v>553</v>
+      </c>
+      <c r="E155" t="s">
+        <v>554</v>
+      </c>
+      <c r="F155" t="s">
+        <v>555</v>
+      </c>
+      <c r="G155" t="s">
+        <v>556</v>
+      </c>
+      <c r="H155" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>557</v>
+      </c>
+      <c r="D156" t="s">
+        <v>558</v>
+      </c>
+      <c r="E156" t="s">
+        <v>559</v>
+      </c>
+      <c r="F156" t="s">
+        <v>560</v>
+      </c>
+      <c r="G156" t="s">
+        <v>561</v>
+      </c>
+      <c r="H156" t="s">
         <v>443</v>
       </c>
-      <c r="F128" t="s">
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>562</v>
+      </c>
+      <c r="D157" t="s">
+        <v>563</v>
+      </c>
+      <c r="E157" t="s">
+        <v>564</v>
+      </c>
+      <c r="F157" t="s">
+        <v>565</v>
+      </c>
+      <c r="G157" t="s">
+        <v>566</v>
+      </c>
+      <c r="H157" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>567</v>
+      </c>
+      <c r="D158" t="s">
+        <v>568</v>
+      </c>
+      <c r="E158" t="s">
+        <v>569</v>
+      </c>
+      <c r="F158" t="s">
+        <v>570</v>
+      </c>
+      <c r="G158" t="s">
+        <v>571</v>
+      </c>
+      <c r="H158" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>572</v>
+      </c>
+      <c r="D159" t="s">
+        <v>573</v>
+      </c>
+      <c r="E159" t="s">
+        <v>574</v>
+      </c>
+      <c r="F159" t="s">
+        <v>575</v>
+      </c>
+      <c r="G159" t="s">
+        <v>576</v>
+      </c>
+      <c r="H159" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>577</v>
+      </c>
+      <c r="D160" t="s">
+        <v>578</v>
+      </c>
+      <c r="E160" t="s">
+        <v>579</v>
+      </c>
+      <c r="F160" t="s">
+        <v>580</v>
+      </c>
+      <c r="G160" t="s">
+        <v>581</v>
+      </c>
+      <c r="H160" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>582</v>
+      </c>
+      <c r="D161" t="s">
+        <v>583</v>
+      </c>
+      <c r="E161" t="s">
+        <v>584</v>
+      </c>
+      <c r="F161" t="s">
+        <v>585</v>
+      </c>
+      <c r="G161" t="s">
+        <v>586</v>
+      </c>
+      <c r="H161" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>587</v>
+      </c>
+      <c r="C162" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>589</v>
+      </c>
+      <c r="D163" t="s">
+        <v>590</v>
+      </c>
+      <c r="E163" t="s">
+        <v>591</v>
+      </c>
+      <c r="F163" t="s">
+        <v>592</v>
+      </c>
+      <c r="G163" t="s">
+        <v>593</v>
+      </c>
+      <c r="H163" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>594</v>
+      </c>
+      <c r="D164" t="s">
+        <v>595</v>
+      </c>
+      <c r="E164" t="s">
+        <v>596</v>
+      </c>
+      <c r="F164" t="s">
+        <v>597</v>
+      </c>
+      <c r="G164" t="s">
+        <v>598</v>
+      </c>
+      <c r="H164" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>599</v>
+      </c>
+      <c r="D165" t="s">
+        <v>600</v>
+      </c>
+      <c r="E165" t="s">
+        <v>601</v>
+      </c>
+      <c r="F165" t="s">
+        <v>602</v>
+      </c>
+      <c r="G165" t="s">
+        <v>603</v>
+      </c>
+      <c r="H165" t="s">
         <v>444</v>
       </c>
-      <c r="G128" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>452</v>
-      </c>
-      <c r="D129" t="s">
-        <v>453</v>
-      </c>
-      <c r="E129" t="s">
-        <v>454</v>
-      </c>
-      <c r="F129" t="s">
-        <v>455</v>
-      </c>
-      <c r="G129" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" t="s">
-        <v>460</v>
-      </c>
-      <c r="C142" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" t="s">
-        <v>1</v>
-      </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
-        <v>462</v>
-      </c>
-      <c r="D143" t="s">
-        <v>463</v>
-      </c>
-      <c r="E143" t="s">
-        <v>464</v>
-      </c>
-      <c r="F143" t="s">
-        <v>465</v>
-      </c>
-      <c r="G143" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" t="s">
-        <v>467</v>
-      </c>
-      <c r="D144" t="s">
-        <v>468</v>
-      </c>
-      <c r="E144" t="s">
-        <v>469</v>
-      </c>
-      <c r="F144" t="s">
-        <v>470</v>
-      </c>
-      <c r="G144" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>472</v>
-      </c>
-      <c r="D145" t="s">
-        <v>473</v>
-      </c>
-      <c r="E145" t="s">
-        <v>474</v>
-      </c>
-      <c r="F145" t="s">
-        <v>475</v>
-      </c>
-      <c r="G145" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" t="s">
-        <v>1</v>
-      </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>477</v>
-      </c>
-      <c r="D146" t="s">
-        <v>478</v>
-      </c>
-      <c r="E146" t="s">
-        <v>479</v>
-      </c>
-      <c r="F146" t="s">
-        <v>480</v>
-      </c>
-      <c r="G146" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" t="s">
-        <v>1</v>
-      </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
-        <v>482</v>
-      </c>
-      <c r="D147" t="s">
-        <v>483</v>
-      </c>
-      <c r="E147" t="s">
-        <v>484</v>
-      </c>
-      <c r="F147" t="s">
-        <v>485</v>
-      </c>
-      <c r="G147" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" t="s">
-        <v>1</v>
-      </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>487</v>
-      </c>
-      <c r="D148" t="s">
-        <v>488</v>
-      </c>
-      <c r="E148" t="s">
-        <v>489</v>
-      </c>
-      <c r="F148" t="s">
-        <v>490</v>
-      </c>
-      <c r="G148" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
-        <v>492</v>
-      </c>
-      <c r="D149" t="s">
-        <v>493</v>
-      </c>
-      <c r="E149" t="s">
-        <v>494</v>
-      </c>
-      <c r="F149" t="s">
-        <v>495</v>
-      </c>
-      <c r="G149" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
-        <v>497</v>
-      </c>
-      <c r="D150" t="s">
-        <v>498</v>
-      </c>
-      <c r="E150" t="s">
-        <v>499</v>
-      </c>
-      <c r="F150" t="s">
-        <v>500</v>
-      </c>
-      <c r="G150" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
-        <v>502</v>
-      </c>
-      <c r="D151" t="s">
-        <v>503</v>
-      </c>
-      <c r="E151" t="s">
-        <v>504</v>
-      </c>
-      <c r="F151" t="s">
-        <v>505</v>
-      </c>
-      <c r="G151" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
-        <v>507</v>
-      </c>
-      <c r="D152" t="s">
-        <v>508</v>
-      </c>
-      <c r="E152" t="s">
-        <v>509</v>
-      </c>
-      <c r="F152" t="s">
-        <v>510</v>
-      </c>
-      <c r="G152" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" t="s">
-        <v>1</v>
-      </c>
-      <c r="B153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
-        <v>512</v>
-      </c>
-      <c r="D153" t="s">
-        <v>513</v>
-      </c>
-      <c r="E153" t="s">
-        <v>514</v>
-      </c>
-      <c r="F153" t="s">
-        <v>515</v>
-      </c>
-      <c r="G153" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>517</v>
-      </c>
-      <c r="D154" t="s">
-        <v>518</v>
-      </c>
-      <c r="E154" t="s">
-        <v>519</v>
-      </c>
-      <c r="F154" t="s">
-        <v>520</v>
-      </c>
-      <c r="G154" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" t="s">
-        <v>522</v>
-      </c>
-      <c r="D155" t="s">
-        <v>523</v>
-      </c>
-      <c r="E155" t="s">
-        <v>524</v>
-      </c>
-      <c r="F155" t="s">
-        <v>525</v>
-      </c>
-      <c r="G155" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" t="s">
-        <v>527</v>
-      </c>
-      <c r="D156" t="s">
-        <v>528</v>
-      </c>
-      <c r="E156" t="s">
-        <v>529</v>
-      </c>
-      <c r="F156" t="s">
-        <v>530</v>
-      </c>
-      <c r="G156" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" t="s">
-        <v>1</v>
-      </c>
-      <c r="B157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" t="s">
-        <v>584</v>
-      </c>
-      <c r="D157" t="s">
-        <v>532</v>
-      </c>
-      <c r="E157" t="s">
-        <v>585</v>
-      </c>
-      <c r="F157" t="s">
-        <v>533</v>
-      </c>
-      <c r="G157" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" t="s">
-        <v>1</v>
-      </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" t="s">
-        <v>535</v>
-      </c>
-      <c r="D158" t="s">
-        <v>536</v>
-      </c>
-      <c r="E158" t="s">
-        <v>537</v>
-      </c>
-      <c r="F158" t="s">
-        <v>538</v>
-      </c>
-      <c r="G158" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" t="s">
-        <v>1</v>
-      </c>
-      <c r="B159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
-        <v>540</v>
-      </c>
-      <c r="D159" t="s">
-        <v>541</v>
-      </c>
-      <c r="E159" t="s">
-        <v>542</v>
-      </c>
-      <c r="F159" t="s">
-        <v>543</v>
-      </c>
-      <c r="G159" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
-        <v>545</v>
-      </c>
-      <c r="D160" t="s">
-        <v>546</v>
-      </c>
-      <c r="E160" t="s">
-        <v>547</v>
-      </c>
-      <c r="F160" t="s">
-        <v>548</v>
-      </c>
-      <c r="G160" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" t="s">
-        <v>1</v>
-      </c>
-      <c r="B161" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" t="s">
-        <v>550</v>
-      </c>
-      <c r="D161" t="s">
-        <v>551</v>
-      </c>
-      <c r="E161" t="s">
-        <v>552</v>
-      </c>
-      <c r="F161" t="s">
-        <v>553</v>
-      </c>
-      <c r="G161" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B162" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
-        <v>555</v>
-      </c>
-      <c r="D162" t="s">
-        <v>556</v>
-      </c>
-      <c r="E162" t="s">
-        <v>557</v>
-      </c>
-      <c r="F162" t="s">
-        <v>558</v>
-      </c>
-      <c r="G162" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B163" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" t="s">
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>604</v>
+      </c>
+      <c r="D166" t="s">
+        <v>605</v>
+      </c>
+      <c r="E166" t="s">
+        <v>606</v>
+      </c>
+      <c r="F166" t="s">
+        <v>607</v>
+      </c>
+      <c r="G166" t="s">
+        <v>608</v>
+      </c>
+      <c r="H166" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>609</v>
+      </c>
+      <c r="D167" t="s">
+        <v>610</v>
+      </c>
+      <c r="E167" t="s">
+        <v>611</v>
+      </c>
+      <c r="F167" t="s">
+        <v>612</v>
+      </c>
+      <c r="G167" t="s">
+        <v>613</v>
+      </c>
+      <c r="H167" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>614</v>
+      </c>
+      <c r="D168" t="s">
+        <v>615</v>
+      </c>
+      <c r="E168" t="s">
+        <v>616</v>
+      </c>
+      <c r="F168" t="s">
+        <v>617</v>
+      </c>
+      <c r="G168" t="s">
+        <v>618</v>
+      </c>
+      <c r="H168" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>619</v>
+      </c>
+      <c r="D169" t="s">
+        <v>620</v>
+      </c>
+      <c r="E169" t="s">
+        <v>621</v>
+      </c>
+      <c r="F169" t="s">
+        <v>622</v>
+      </c>
+      <c r="G169" t="s">
+        <v>623</v>
+      </c>
+      <c r="H169" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>624</v>
+      </c>
+      <c r="D170" t="s">
+        <v>625</v>
+      </c>
+      <c r="E170" t="s">
+        <v>626</v>
+      </c>
+      <c r="F170" t="s">
+        <v>627</v>
+      </c>
+      <c r="G170" t="s">
+        <v>628</v>
+      </c>
+      <c r="H170" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>629</v>
+      </c>
+      <c r="D171" t="s">
+        <v>630</v>
+      </c>
+      <c r="E171" t="s">
+        <v>631</v>
+      </c>
+      <c r="F171" t="s">
+        <v>632</v>
+      </c>
+      <c r="G171" t="s">
+        <v>633</v>
+      </c>
+      <c r="H171" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>634</v>
+      </c>
+      <c r="D172" t="s">
+        <v>635</v>
+      </c>
+      <c r="E172" t="s">
+        <v>636</v>
+      </c>
+      <c r="F172" t="s">
         <v>592</v>
       </c>
-      <c r="D163" t="s">
-        <v>560</v>
-      </c>
-      <c r="E163" t="s">
-        <v>561</v>
-      </c>
-      <c r="F163" t="s">
-        <v>562</v>
-      </c>
-      <c r="G163" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" t="s">
-        <v>564</v>
-      </c>
-      <c r="D164" t="s">
-        <v>565</v>
-      </c>
-      <c r="E164" t="s">
-        <v>566</v>
-      </c>
-      <c r="F164" t="s">
-        <v>567</v>
-      </c>
-      <c r="G164" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" t="s">
-        <v>569</v>
-      </c>
-      <c r="D165" t="s">
-        <v>570</v>
-      </c>
-      <c r="E165" t="s">
-        <v>571</v>
-      </c>
-      <c r="F165" t="s">
-        <v>572</v>
-      </c>
-      <c r="G165" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B166" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s">
-        <v>574</v>
-      </c>
-      <c r="D166" t="s">
-        <v>575</v>
-      </c>
-      <c r="E166" t="s">
-        <v>576</v>
-      </c>
-      <c r="F166" t="s">
-        <v>577</v>
-      </c>
-      <c r="G166" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" t="s">
-        <v>579</v>
-      </c>
-      <c r="D167" t="s">
-        <v>580</v>
-      </c>
-      <c r="E167" t="s">
-        <v>581</v>
-      </c>
-      <c r="F167" t="s">
-        <v>582</v>
-      </c>
-      <c r="G167" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" t="s">
-        <v>1</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" t="s">
-        <v>1</v>
-      </c>
-      <c r="B169" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="8" t="s">
+      <c r="G172" t="s">
+        <v>637</v>
+      </c>
+      <c r="H172" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>638</v>
+      </c>
+      <c r="D173" t="s">
+        <v>639</v>
+      </c>
+      <c r="E173" t="s">
+        <v>640</v>
+      </c>
+      <c r="F173" t="s">
+        <v>641</v>
+      </c>
+      <c r="G173" t="s">
+        <v>642</v>
+      </c>
+      <c r="H173" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>643</v>
+      </c>
+      <c r="D174" t="s">
+        <v>644</v>
+      </c>
+      <c r="E174" t="s">
+        <v>645</v>
+      </c>
+      <c r="F174" t="s">
+        <v>646</v>
+      </c>
+      <c r="G174" t="s">
+        <v>592</v>
+      </c>
+      <c r="H174" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>647</v>
+      </c>
+      <c r="D175" t="s">
+        <v>648</v>
+      </c>
+      <c r="E175" t="s">
+        <v>649</v>
+      </c>
+      <c r="F175" t="s">
+        <v>650</v>
+      </c>
+      <c r="G175" t="s">
+        <v>651</v>
+      </c>
+      <c r="H175" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>652</v>
+      </c>
+      <c r="D176" t="s">
+        <v>653</v>
+      </c>
+      <c r="E176" t="s">
+        <v>646</v>
+      </c>
+      <c r="F176" t="s">
+        <v>654</v>
+      </c>
+      <c r="G176" t="s">
+        <v>655</v>
+      </c>
+      <c r="H176" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>656</v>
+      </c>
+      <c r="D177" t="s">
+        <v>657</v>
+      </c>
+      <c r="E177" t="s">
+        <v>658</v>
+      </c>
+      <c r="F177" t="s">
+        <v>659</v>
+      </c>
+      <c r="G177" t="s">
         <v>660</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" t="s">
-        <v>1</v>
-      </c>
-      <c r="B170" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" t="s">
-        <v>593</v>
-      </c>
-      <c r="D170" t="s">
-        <v>594</v>
-      </c>
-      <c r="E170" t="s">
-        <v>595</v>
-      </c>
-      <c r="F170" t="s">
-        <v>596</v>
-      </c>
-      <c r="G170" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" t="s">
-        <v>1</v>
-      </c>
-      <c r="B171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" t="s">
-        <v>598</v>
-      </c>
-      <c r="D171" t="s">
-        <v>599</v>
-      </c>
-      <c r="E171" t="s">
-        <v>600</v>
-      </c>
-      <c r="F171" t="s">
-        <v>601</v>
-      </c>
-      <c r="G171" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" t="s">
-        <v>1</v>
-      </c>
-      <c r="B172" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" t="s">
-        <v>603</v>
-      </c>
-      <c r="D172" t="s">
-        <v>604</v>
-      </c>
-      <c r="E172" t="s">
-        <v>605</v>
-      </c>
-      <c r="F172" t="s">
-        <v>606</v>
-      </c>
-      <c r="G172" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" t="s">
-        <v>1</v>
-      </c>
-      <c r="B173" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" t="s">
-        <v>608</v>
-      </c>
-      <c r="D173" t="s">
-        <v>609</v>
-      </c>
-      <c r="E173" t="s">
-        <v>610</v>
-      </c>
-      <c r="F173" t="s">
-        <v>611</v>
-      </c>
-      <c r="G173" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" t="s">
-        <v>613</v>
-      </c>
-      <c r="D174" t="s">
-        <v>614</v>
-      </c>
-      <c r="E174" t="s">
-        <v>615</v>
-      </c>
-      <c r="F174" t="s">
-        <v>616</v>
-      </c>
-      <c r="G174" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" t="s">
-        <v>1</v>
-      </c>
-      <c r="B175" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" t="s">
-        <v>618</v>
-      </c>
-      <c r="D175" t="s">
-        <v>619</v>
-      </c>
-      <c r="E175" t="s">
-        <v>620</v>
-      </c>
-      <c r="F175" t="s">
-        <v>621</v>
-      </c>
-      <c r="G175" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" t="s">
-        <v>1</v>
-      </c>
-      <c r="B176" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" t="s">
-        <v>623</v>
-      </c>
-      <c r="D176" t="s">
-        <v>624</v>
-      </c>
-      <c r="E176" t="s">
-        <v>625</v>
-      </c>
-      <c r="F176" t="s">
-        <v>626</v>
-      </c>
-      <c r="G176" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" t="s">
-        <v>628</v>
-      </c>
-      <c r="D177" t="s">
-        <v>629</v>
-      </c>
-      <c r="E177" t="s">
-        <v>630</v>
-      </c>
-      <c r="F177" t="s">
-        <v>631</v>
-      </c>
-      <c r="G177" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" t="s">
-        <v>633</v>
-      </c>
-      <c r="D178" t="s">
-        <v>634</v>
-      </c>
-      <c r="E178" t="s">
-        <v>635</v>
-      </c>
-      <c r="F178" t="s">
-        <v>589</v>
-      </c>
-      <c r="G178" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>661</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -7265,22 +7275,25 @@
         <v>3</v>
       </c>
       <c r="C179" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="D179" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="E179" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="F179" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="G179" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>667</v>
+      </c>
+      <c r="H179" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -7288,22 +7301,25 @@
         <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="D180" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="E180" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="F180" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="G180" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>672</v>
+      </c>
+      <c r="H180" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -7311,22 +7327,25 @@
         <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="D181" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="E181" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="F181" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="G181" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>677</v>
+      </c>
+      <c r="H181" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -7334,22 +7353,25 @@
         <v>3</v>
       </c>
       <c r="C182" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="D182" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="E182" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="F182" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="G182" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>682</v>
+      </c>
+      <c r="H182" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -7357,34 +7379,51 @@
         <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="D183" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="E183" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="F183" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="G183" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>687</v>
+      </c>
+      <c r="H183" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>1</v>
       </c>
       <c r="B184" t="s">
-        <v>661</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="F184" s="5"/>
-    </row>
-    <row r="185" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>688</v>
+      </c>
+      <c r="D184" t="s">
+        <v>689</v>
+      </c>
+      <c r="E184" t="s">
+        <v>690</v>
+      </c>
+      <c r="F184" t="s">
+        <v>691</v>
+      </c>
+      <c r="G184" t="s">
+        <v>692</v>
+      </c>
+      <c r="H184" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>1</v>
       </c>
@@ -7392,45 +7431,36 @@
         <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="D185" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="E185" t="s">
-        <v>665</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>666</v>
+        <v>695</v>
+      </c>
+      <c r="F185" t="s">
+        <v>696</v>
       </c>
       <c r="G185" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>697</v>
+      </c>
+      <c r="H185" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" t="s">
-        <v>668</v>
-      </c>
-      <c r="D186" t="s">
-        <v>669</v>
-      </c>
-      <c r="E186" t="s">
-        <v>670</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="G186" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>698</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -7438,22 +7468,25 @@
         <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="D187" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="E187" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="F187" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="G187" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>704</v>
+      </c>
+      <c r="H187" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -7461,22 +7494,25 @@
         <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="D188" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="E188" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="F188" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="G188" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>709</v>
+      </c>
+      <c r="H188" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -7484,22 +7520,25 @@
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="D189" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="E189" t="s">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="F189" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="G189" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>714</v>
+      </c>
+      <c r="H189" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -7507,22 +7546,25 @@
         <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="D190" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="E190" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="F190" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="G190" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>719</v>
+      </c>
+      <c r="H190" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -7530,30 +7572,48 @@
         <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="D191" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="E191" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="F191" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="G191" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>724</v>
+      </c>
+      <c r="H191" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>1</v>
       </c>
-      <c r="B192" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>698</v>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>725</v>
+      </c>
+      <c r="D192" t="s">
+        <v>726</v>
+      </c>
+      <c r="E192" t="s">
+        <v>727</v>
+      </c>
+      <c r="F192" t="s">
+        <v>728</v>
+      </c>
+      <c r="G192" t="s">
+        <v>729</v>
+      </c>
+      <c r="H192" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7564,19 +7624,22 @@
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="D193" t="s">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="E193" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="F193" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="G193" t="s">
-        <v>703</v>
+        <v>734</v>
+      </c>
+      <c r="H193" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7584,22 +7647,10 @@
         <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>3</v>
-      </c>
-      <c r="C194" t="s">
-        <v>704</v>
-      </c>
-      <c r="D194" t="s">
-        <v>705</v>
-      </c>
-      <c r="E194" t="s">
-        <v>706</v>
-      </c>
-      <c r="F194" t="s">
-        <v>707</v>
-      </c>
-      <c r="G194" t="s">
-        <v>708</v>
+        <v>735</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7610,19 +7661,22 @@
         <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="D195" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="E195" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="F195" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="G195" t="s">
-        <v>713</v>
+        <v>741</v>
+      </c>
+      <c r="H195" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7633,21 +7687,23 @@
         <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
       <c r="D196" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
       <c r="E196" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="F196" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
       <c r="G196" t="s">
-        <v>718</v>
-      </c>
-      <c r="H196" s="6"/>
+        <v>746</v>
+      </c>
+      <c r="H196" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
@@ -7657,19 +7713,22 @@
         <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="D197" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="E197" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="F197" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="G197" t="s">
-        <v>723</v>
+        <v>751</v>
+      </c>
+      <c r="H197" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7680,19 +7739,22 @@
         <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="D198" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="E198" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="F198" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="G198" t="s">
-        <v>728</v>
+        <v>756</v>
+      </c>
+      <c r="H198" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7703,316 +7765,51 @@
         <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="D199" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="E199" t="s">
-        <v>731</v>
+        <v>759</v>
       </c>
       <c r="F199" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="G199" t="s">
-        <v>733</v>
+        <v>761</v>
+      </c>
+      <c r="H199" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>1</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>762</v>
+      </c>
+      <c r="D200" t="s">
+        <v>763</v>
+      </c>
+      <c r="E200" t="s">
+        <v>764</v>
+      </c>
+      <c r="F200" t="s">
+        <v>765</v>
+      </c>
+      <c r="G200" t="s">
         <v>766</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>1</v>
-      </c>
-      <c r="B201" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" t="s">
-        <v>736</v>
-      </c>
-      <c r="D201" t="s">
-        <v>737</v>
-      </c>
-      <c r="E201" t="s">
-        <v>738</v>
-      </c>
-      <c r="F201" t="s">
-        <v>739</v>
-      </c>
-      <c r="G201" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
-        <v>1</v>
-      </c>
-      <c r="B202" t="s">
-        <v>3</v>
-      </c>
-      <c r="C202" t="s">
-        <v>741</v>
-      </c>
-      <c r="D202" t="s">
-        <v>742</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="F202" t="s">
-        <v>744</v>
-      </c>
-      <c r="G202" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
-        <v>1</v>
-      </c>
-      <c r="B203" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" t="s">
-        <v>746</v>
-      </c>
-      <c r="D203" t="s">
-        <v>747</v>
-      </c>
-      <c r="E203" t="s">
-        <v>748</v>
-      </c>
-      <c r="F203" t="s">
-        <v>749</v>
-      </c>
-      <c r="G203" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
-        <v>1</v>
-      </c>
-      <c r="B204" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="E204" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="F204" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="G204" s="9" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
-        <v>1</v>
-      </c>
-      <c r="B205" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="F205" s="10" t="s">
-        <v>759</v>
-      </c>
-      <c r="G205" s="9" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
-        <v>1</v>
-      </c>
-      <c r="B206" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="F206" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="G206" s="9" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="211" spans="6:7">
-      <c r="F211" s="5"/>
-    </row>
-    <row r="213" spans="6:7">
-      <c r="F213" s="6"/>
-    </row>
-    <row r="215" spans="6:7">
-      <c r="F215" s="4"/>
-    </row>
-    <row r="217" spans="6:7">
-      <c r="F217" s="5"/>
-    </row>
-    <row r="219" spans="6:7">
-      <c r="F219" s="4"/>
-    </row>
-    <row r="221" spans="6:7">
-      <c r="F221" s="5"/>
-    </row>
-    <row r="222" spans="6:7">
-      <c r="F222" s="6"/>
-    </row>
-    <row r="223" spans="6:7">
-      <c r="F223" s="6"/>
-      <c r="G223" s="6"/>
-    </row>
-    <row r="225" spans="6:6">
-      <c r="F225" s="4"/>
-    </row>
-    <row r="227" spans="6:6">
-      <c r="F227" s="5"/>
-    </row>
-    <row r="229" spans="6:6">
-      <c r="F229" s="4"/>
-    </row>
-    <row r="230" spans="6:6">
-      <c r="F230" s="4"/>
-    </row>
-    <row r="231" spans="6:6">
-      <c r="F231" s="4"/>
-    </row>
-    <row r="237" spans="6:6">
-      <c r="F237" s="4"/>
-    </row>
-    <row r="239" spans="6:6">
-      <c r="F239" s="4"/>
-    </row>
-    <row r="241" spans="6:6">
-      <c r="F241" s="5"/>
-    </row>
-    <row r="243" spans="6:6">
-      <c r="F243" s="4"/>
-    </row>
-    <row r="245" spans="6:6">
-      <c r="F245" s="5"/>
-    </row>
-    <row r="247" spans="6:6">
-      <c r="F247" s="6"/>
-    </row>
-    <row r="249" spans="6:6">
-      <c r="F249" s="4"/>
-    </row>
-    <row r="251" spans="6:6">
-      <c r="F251" s="4"/>
-    </row>
-    <row r="253" spans="6:6">
-      <c r="F253" s="5"/>
-    </row>
-    <row r="255" spans="6:6">
-      <c r="F255" s="4"/>
-    </row>
-    <row r="257" spans="6:7">
-      <c r="F257" s="5"/>
-    </row>
-    <row r="258" spans="6:7">
-      <c r="F258" s="6"/>
-    </row>
-    <row r="259" spans="6:7">
-      <c r="F259" s="6"/>
-      <c r="G259" s="6"/>
-    </row>
-    <row r="261" spans="6:7">
-      <c r="F261" s="4"/>
-    </row>
-    <row r="263" spans="6:7">
-      <c r="F263" s="5"/>
-    </row>
-    <row r="265" spans="6:7">
-      <c r="F265" s="4"/>
-    </row>
-    <row r="266" spans="6:7">
-      <c r="F266" s="4"/>
-    </row>
-    <row r="267" spans="6:7">
-      <c r="F267" s="4"/>
-    </row>
-    <row r="269" spans="6:7">
-      <c r="F269" s="5"/>
-    </row>
-    <row r="270" spans="6:7">
-      <c r="F270" s="4"/>
-    </row>
-    <row r="271" spans="6:7">
-      <c r="F271" s="4"/>
-      <c r="G271" s="4"/>
-    </row>
-    <row r="272" spans="6:7">
-      <c r="F272" s="7"/>
-    </row>
-    <row r="273" spans="6:9">
-      <c r="F273" s="4"/>
-    </row>
-    <row r="274" spans="6:9">
-      <c r="F274" s="4"/>
-      <c r="G274" s="4"/>
-    </row>
-    <row r="275" spans="6:9">
-      <c r="F275" s="4"/>
-      <c r="G275" s="4"/>
-      <c r="H275" s="4"/>
-      <c r="I275" s="4"/>
-    </row>
-    <row r="276" spans="6:9">
-      <c r="F276" s="5"/>
-    </row>
-    <row r="277" spans="6:9">
-      <c r="F277" s="4"/>
-    </row>
-    <row r="278" spans="6:9">
-      <c r="F278" s="4"/>
-      <c r="G278" s="4"/>
-      <c r="H278" s="4"/>
-      <c r="I278" s="4"/>
-    </row>
-    <row r="279" spans="6:9">
-      <c r="F279" s="4"/>
-    </row>
-    <row r="280" spans="6:9">
-      <c r="F280" s="4"/>
-      <c r="G280" s="4"/>
-      <c r="H280" s="4"/>
-    </row>
-    <row r="281" spans="6:9">
-      <c r="F281" s="4"/>
+      <c r="H200" t="s">
+        <v>443</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>